--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H2">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J2">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N2">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O2">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P2">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q2">
-        <v>30.06303338384356</v>
+        <v>15.70276261801333</v>
       </c>
       <c r="R2">
-        <v>270.567300454592</v>
+        <v>141.32486356212</v>
       </c>
       <c r="S2">
-        <v>0.1140647705387779</v>
+        <v>0.04465531993022907</v>
       </c>
       <c r="T2">
-        <v>0.1140647705387779</v>
+        <v>0.04465531993022907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H3">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J3">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>28.185334</v>
       </c>
       <c r="N3">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O3">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P3">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q3">
-        <v>19.04118488060267</v>
+        <v>32.27324089224666</v>
       </c>
       <c r="R3">
-        <v>171.370663925424</v>
+        <v>290.45916803022</v>
       </c>
       <c r="S3">
-        <v>0.07224581619763049</v>
+        <v>0.09177823879063128</v>
       </c>
       <c r="T3">
-        <v>0.07224581619763049</v>
+        <v>0.09177823879063128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H4">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J4">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N4">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P4">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q4">
-        <v>11.506158808848</v>
+        <v>24.13399011334111</v>
       </c>
       <c r="R4">
-        <v>103.555429279632</v>
+        <v>217.2059110200699</v>
       </c>
       <c r="S4">
-        <v>0.04365651820814992</v>
+        <v>0.06863193922755621</v>
       </c>
       <c r="T4">
-        <v>0.04365651820814992</v>
+        <v>0.06863193922755621</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6755706666666667</v>
+        <v>1.145036666666667</v>
       </c>
       <c r="H5">
-        <v>2.026712</v>
+        <v>3.43511</v>
       </c>
       <c r="I5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="J5">
-        <v>0.3897021710091528</v>
+        <v>0.4953865629219574</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N5">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O5">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P5">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q5">
-        <v>42.09994550453955</v>
+        <v>102.0895779811056</v>
       </c>
       <c r="R5">
-        <v>378.8995095408559</v>
+        <v>918.8062018299501</v>
       </c>
       <c r="S5">
-        <v>0.1597350660645944</v>
+        <v>0.2903210649735409</v>
       </c>
       <c r="T5">
-        <v>0.1597350660645944</v>
+        <v>0.2903210649735408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H6">
         <v>1.414049</v>
       </c>
       <c r="I6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J6">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N6">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O6">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P6">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q6">
-        <v>20.97515695046489</v>
+        <v>6.463978090145332</v>
       </c>
       <c r="R6">
-        <v>188.776412554184</v>
+        <v>58.175802811308</v>
       </c>
       <c r="S6">
-        <v>0.07958366788946253</v>
+        <v>0.01838218004431313</v>
       </c>
       <c r="T6">
-        <v>0.07958366788946254</v>
+        <v>0.01838218004431313</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H7">
         <v>1.414049</v>
       </c>
       <c r="I7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J7">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>28.185334</v>
       </c>
       <c r="N7">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O7">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P7">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q7">
-        <v>13.28514778578867</v>
+        <v>13.28514778578866</v>
       </c>
       <c r="R7">
         <v>119.566330072098</v>
       </c>
       <c r="S7">
-        <v>0.05040633506311858</v>
+        <v>0.03778013710875441</v>
       </c>
       <c r="T7">
-        <v>0.05040633506311859</v>
+        <v>0.03778013710875441</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H8">
         <v>1.414049</v>
       </c>
       <c r="I8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J8">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N8">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P8">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q8">
-        <v>8.027915341445999</v>
+        <v>9.934658449301441</v>
       </c>
       <c r="R8">
-        <v>72.25123807301399</v>
+        <v>89.41192604371298</v>
       </c>
       <c r="S8">
-        <v>0.03045941205051146</v>
+        <v>0.02825205744001986</v>
       </c>
       <c r="T8">
-        <v>0.03045941205051147</v>
+        <v>0.02825205744001986</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4713496666666667</v>
+        <v>0.4713496666666666</v>
       </c>
       <c r="H9">
         <v>1.414049</v>
       </c>
       <c r="I9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="J9">
-        <v>0.2718975193383774</v>
+        <v>0.2039238551060172</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N9">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O9">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P9">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q9">
-        <v>29.37338202998189</v>
+        <v>42.02475776746722</v>
       </c>
       <c r="R9">
-        <v>264.360438269837</v>
+        <v>378.222819907205</v>
       </c>
       <c r="S9">
-        <v>0.1114481043352848</v>
+        <v>0.1195094805129299</v>
       </c>
       <c r="T9">
-        <v>0.1114481043352848</v>
+        <v>0.1195094805129298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H10">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I10">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J10">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N10">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O10">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P10">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q10">
-        <v>22.43115916876622</v>
+        <v>8.671514680007999</v>
       </c>
       <c r="R10">
-        <v>201.880432518896</v>
+        <v>78.04363212007199</v>
       </c>
       <c r="S10">
-        <v>0.08510801258262801</v>
+        <v>0.02465994498772001</v>
       </c>
       <c r="T10">
-        <v>0.08510801258262804</v>
+        <v>0.02465994498772002</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H11">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I11">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J11">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>28.185334</v>
       </c>
       <c r="N11">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O11">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P11">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q11">
-        <v>14.20734372893467</v>
+        <v>17.822206765548</v>
       </c>
       <c r="R11">
-        <v>127.866093560412</v>
+        <v>160.399860889932</v>
       </c>
       <c r="S11">
-        <v>0.05390531892491582</v>
+        <v>0.05068256868796302</v>
       </c>
       <c r="T11">
-        <v>0.05390531892491584</v>
+        <v>0.05068256868796302</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H12">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I12">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J12">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N12">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P12">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q12">
-        <v>8.585177562323997</v>
+        <v>13.327479670038</v>
       </c>
       <c r="R12">
-        <v>77.26659806091598</v>
+        <v>119.947317030342</v>
       </c>
       <c r="S12">
-        <v>0.0325737691262861</v>
+        <v>0.03790051999171507</v>
       </c>
       <c r="T12">
-        <v>0.03257376912628611</v>
+        <v>0.03790051999171508</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5040686666666666</v>
+        <v>0.6323219999999999</v>
       </c>
       <c r="H13">
-        <v>1.512206</v>
+        <v>1.896966</v>
       </c>
       <c r="I13">
-        <v>0.290771437290087</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="J13">
-        <v>0.2907714372900871</v>
+        <v>0.2735666300991275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N13">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O13">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P13">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q13">
-        <v>31.41235172616422</v>
+        <v>56.37678513482999</v>
       </c>
       <c r="R13">
-        <v>282.711165535478</v>
+        <v>507.39106621347</v>
       </c>
       <c r="S13">
-        <v>0.1191843366562571</v>
+        <v>0.1603235964317294</v>
       </c>
       <c r="T13">
-        <v>0.1191843366562571</v>
+        <v>0.1603235964317294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H14">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J14">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.50020533333333</v>
+        <v>13.713764</v>
       </c>
       <c r="N14">
-        <v>133.500616</v>
+        <v>41.141292</v>
       </c>
       <c r="O14">
-        <v>0.2926972930209796</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="P14">
-        <v>0.2926972930209797</v>
+        <v>0.0901423721847377</v>
       </c>
       <c r="Q14">
-        <v>3.674263287159111</v>
+        <v>0.859743292688</v>
       </c>
       <c r="R14">
-        <v>33.068369584432</v>
+        <v>7.737689634192</v>
       </c>
       <c r="S14">
-        <v>0.01394084201011114</v>
+        <v>0.002444927222475485</v>
       </c>
       <c r="T14">
-        <v>0.01394084201011114</v>
+        <v>0.002444927222475485</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H15">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J15">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>28.185334</v>
       </c>
       <c r="N15">
-        <v>84.55600200000001</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O15">
-        <v>0.1853872561462678</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="P15">
-        <v>0.1853872561462679</v>
+        <v>0.1852659027513629</v>
       </c>
       <c r="Q15">
-        <v>2.327187867489333</v>
+        <v>1.766994959128</v>
       </c>
       <c r="R15">
-        <v>20.944690807404</v>
+        <v>15.902954632152</v>
       </c>
       <c r="S15">
-        <v>0.00882978596060292</v>
+        <v>0.005024958164014185</v>
       </c>
       <c r="T15">
-        <v>0.008829785960602922</v>
+        <v>0.005024958164014185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H16">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J16">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.031762</v>
+        <v>21.07704566666666</v>
       </c>
       <c r="N16">
-        <v>51.09528599999999</v>
+        <v>63.23113699999999</v>
       </c>
       <c r="O16">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="P16">
-        <v>0.1120253400054181</v>
+        <v>0.1385421898057586</v>
       </c>
       <c r="Q16">
-        <v>1.406267170308</v>
+        <v>1.321362146934666</v>
       </c>
       <c r="R16">
-        <v>12.656404532772</v>
+        <v>11.892259322412</v>
       </c>
       <c r="S16">
-        <v>0.005335640620470571</v>
+        <v>0.003757673146467467</v>
       </c>
       <c r="T16">
-        <v>0.005335640620470571</v>
+        <v>0.003757673146467467</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08256733333333333</v>
+        <v>0.062692</v>
       </c>
       <c r="H17">
-        <v>0.247702</v>
+        <v>0.188076</v>
       </c>
       <c r="I17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="J17">
-        <v>0.0476288723623826</v>
+        <v>0.02712295187289783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.31760433333333</v>
+        <v>89.15834833333334</v>
       </c>
       <c r="N17">
-        <v>186.952813</v>
+        <v>267.475045</v>
       </c>
       <c r="O17">
-        <v>0.4098901108273343</v>
+        <v>0.5860495352581409</v>
       </c>
       <c r="P17">
-        <v>0.4098901108273344</v>
+        <v>0.5860495352581407</v>
       </c>
       <c r="Q17">
-        <v>5.14539840952511</v>
+        <v>5.589515173713333</v>
       </c>
       <c r="R17">
-        <v>46.30858568572599</v>
+        <v>50.30563656342</v>
       </c>
       <c r="S17">
-        <v>0.01952260377119797</v>
+        <v>0.01589539333994069</v>
       </c>
       <c r="T17">
-        <v>0.01952260377119797</v>
+        <v>0.01589539333994069</v>
       </c>
     </row>
   </sheetData>
